--- a/tables/table_S7_curated_potential.xlsx
+++ b/tables/table_S7_curated_potential.xlsx
@@ -1726,18 +1726,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1819,7 +1813,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1911,11 +1905,11 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
-      <selection pane="bottomRight" activeCell="J53" activeCellId="0" sqref="J53"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1927,9 +1921,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="66.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="14" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.43"/>
